--- a/file_checks/correct_genes_example.xlsx
+++ b/file_checks/correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.12732468479633</v>
+        <v>-1.30175719387065</v>
       </c>
       <c r="B2" t="n">
-        <v>0.657328439926628</v>
+        <v>0.532227589971868</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.410721368543266</v>
+        <v>1.34893380089154</v>
       </c>
       <c r="D2" t="n">
-        <v>1.29644699213953</v>
+        <v>1.15659953025055</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.2630244263015</v>
+        <v>-0.268880052287978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.460201903591655</v>
+        <v>-0.354575612182504</v>
       </c>
       <c r="G2" t="n">
-        <v>0.597342773749386</v>
+        <v>0.849618031495703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.610211557927833</v>
+        <v>-0.11204829246064</v>
       </c>
       <c r="I2" t="n">
-        <v>0.518703718503663</v>
+        <v>-0.414996419843708</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.253434997226301</v>
+        <v>-0.166241327019732</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.640342710336879</v>
+        <v>-0.620664658011455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.379704007824844</v>
+        <v>0.283453392983134</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.883228089124088</v>
+        <v>-0.934516395715085</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.543456072996497</v>
+        <v>0.211963134823303</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.12084346008233</v>
+        <v>0.603025311520047</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.430673457402922</v>
+        <v>-1.03635430058917</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.166191467462</v>
+        <v>0.087514334277743</v>
       </c>
       <c r="R2" t="n">
-        <v>0.23093379366522</v>
+        <v>0.813077245194403</v>
       </c>
       <c r="S2" t="n">
-        <v>0.985454541082225</v>
+        <v>1.43647592310919</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.268417679159226</v>
+        <v>1.13515643822409</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.12451337940883</v>
+        <v>-0.024277317284217</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.667644909873129</v>
+        <v>0.573225859179252</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.12981774961518</v>
+        <v>0.502674564700764</v>
       </c>
       <c r="X2" t="n">
-        <v>0.926473697298386</v>
+        <v>0.222892768761002</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.974654974573368</v>
+        <v>-0.316116468986665</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.413936039797168</v>
+        <v>0.945822041105904</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.15557631874995</v>
+        <v>-0.703244882903333</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.285537899443074</v>
+        <v>0.903130698803845</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.542804635242051</v>
+        <v>1.55021880495147</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.11478856695765</v>
+        <v>0.631377599563025</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.22661967636912</v>
+        <v>-0.503704545984853</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.575502651917009</v>
+        <v>0.765122291316445</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.21592279644913</v>
+        <v>-1.542335277695</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.431367987926652</v>
+        <v>0.859848742151852</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.238270546469787</v>
+        <v>-0.187316856289753</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.108996422050476</v>
+        <v>-0.929949345381321</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.593275713241659</v>
+        <v>1.14316640609562</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.373328919435235</v>
+        <v>0.804390327749306</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.707123174322791</v>
+        <v>-0.992898775417287</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.3584759091211</v>
+        <v>0.120518280325633</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.21014649278648</v>
+        <v>-1.87741549893542</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0222547262947234</v>
+        <v>0.745327312997737</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0446118128293211</v>
+        <v>-0.698333724175241</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.293221792062867</v>
+        <v>-0.00034473225010361</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.71277662792597</v>
+        <v>-2.56164373332478</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.02084113130549</v>
+        <v>-1.07129739245344</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.954806175630807</v>
+        <v>-1.08462073288818</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.250993813631633</v>
+        <v>0.246852742678984</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.193037578160108</v>
+        <v>0.0313427629519724</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.938031231355737</v>
+        <v>-0.458106743623414</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.68687372009306</v>
+        <v>0.334367689394699</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.499252358287386</v>
+        <v>-0.266227749888469</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.416024056382574</v>
+        <v>0.733752496097462</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.27617910643023</v>
+        <v>0.97046925534907</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.806794945288099</v>
+        <v>0.558526581680444</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.05295891939919</v>
+        <v>-0.0669728314331824</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.10310765767741</v>
+        <v>0.212913553105922</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.755254246614376</v>
+        <v>0.191523497640883</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.145459994290992</v>
+        <v>-0.277089140526768</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.02954408623203</v>
+        <v>0.693913794094686</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.07818336481228</v>
+        <v>0.373531023059266</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.458434453783487</v>
+        <v>-1.1436877900879</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.61857556660889</v>
+        <v>-1.15074293912455</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.174822575601352</v>
+        <v>1.1644220654889</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.7986330491547</v>
+        <v>-0.344759159970872</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.747098556931051</v>
+        <v>1.3127829366932</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.57722286381245</v>
+        <v>-0.581070282599941</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.823113891138217</v>
+        <v>0.574697214799687</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.641145093250332</v>
+        <v>0.95919462198748</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.299260974253154</v>
+        <v>-0.747198794168147</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.172785861254944</v>
+        <v>1.48664694028739</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.16311137817087</v>
+        <v>2.16664502252403</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.12464934471761</v>
+        <v>1.16042925783074</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.120578267429523</v>
+        <v>1.93697639885925</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.759662319347574</v>
+        <v>1.00031714478767</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.12906445555674</v>
+        <v>1.0911197265296</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.266870479135431</v>
+        <v>2.5783393307368</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.117687433541285</v>
+        <v>0.810324357493145</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.597813930869771</v>
+        <v>-2.10317203908284</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.863205602190302</v>
+        <v>1.76623649996431</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.330929110228236</v>
+        <v>-1.34844741599892</v>
       </c>
       <c r="CD2" t="n">
-        <v>2.19174986596655</v>
+        <v>-0.811040240603759</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.389504034572679</v>
+        <v>1.30579942622889</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.76091783080755</v>
+        <v>0.0127713824304196</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.23731057952369</v>
+        <v>0.235011429753219</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0557122171530637</v>
+        <v>-0.0966808036030831</v>
       </c>
       <c r="CI2" t="n">
-        <v>-3.17038077239294</v>
+        <v>0.191432575931869</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.58934931816141</v>
+        <v>0.825113502110815</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.85673473773971</v>
+        <v>-0.855118125019641</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.566339353178964</v>
+        <v>-0.868854204010183</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.660991707171673</v>
+        <v>0.699669565434421</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.34551838399061</v>
+        <v>-1.21851181277544</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.401862790617764</v>
+        <v>0.439267800020903</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.16166225380201</v>
+        <v>0.205568337784066</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0922356186775787</v>
+        <v>-0.657998170845686</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.768300367406189</v>
+        <v>-0.23181345752603</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.870687255850062</v>
+        <v>-0.906810903795959</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.611042442372086</v>
+        <v>0.292451257307737</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.04907042220024</v>
+        <v>-0.889932889479522</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.18768780725531</v>
+        <v>-0.903547087062832</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.781065501331863</v>
+        <v>0.311844838977255</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.713768081182555</v>
+        <v>2.25186992522669</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.698212472924878</v>
+        <v>1.80736812652041</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.389028171817336</v>
+        <v>-0.109346897464909</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.08867501409445</v>
+        <v>-0.648472634918972</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.66588018081554</v>
+        <v>-1.06374904237778</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.66655738271941</v>
+        <v>0.813807554895297</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.13572529562853</v>
+        <v>0.312768739836604</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.782494699473459</v>
+        <v>-0.718641406760497</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.781017895109015</v>
+        <v>0.79341659067426</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.262487539836336</v>
+        <v>0.119178693572979</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.96952460248029</v>
+        <v>0.539315185003621</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.397532339640734</v>
+        <v>0.548031912162587</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0151483408319812</v>
+        <v>-0.387837728808007</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.08151404381526</v>
+        <v>-0.145201952096477</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.822336026546864</v>
+        <v>-2.48810816954372</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.910912925494074</v>
+        <v>0.610626703512189</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.806730791266428</v>
+        <v>1.68598212155191</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.02213734601325</v>
+        <v>-1.50904409354208</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.193088055785963</v>
+        <v>1.19597374451752</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.0923702867056</v>
+        <v>-0.263091166822127</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.114734672450321</v>
+        <v>-0.325881693892514</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0915425556800587</v>
+        <v>-0.145895669062277</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.302054806543485</v>
+        <v>-0.52612741627811</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.579050481057297</v>
+        <v>0.153977936099279</v>
       </c>
       <c r="DV2" t="n">
-        <v>-1.6363210083037</v>
+        <v>-0.176199630165916</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.583264363886994</v>
+        <v>-0.160998903094442</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.409847460332581</v>
+        <v>1.5919538062609</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.0248536520777</v>
+        <v>-0.469202757070866</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.608814608274559</v>
+        <v>2.9182328039286</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.473112201262839</v>
+        <v>0.632802444024649</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.53032721239674</v>
+        <v>0.390913929346943</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0623689858638519</v>
+        <v>0.277277086349424</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.31380960170928</v>
+        <v>0.1664934658825</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.40785443990709</v>
+        <v>1.61762030892586</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00419482410146784</v>
+        <v>1.27587871452133</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.410863369359779</v>
+        <v>-0.591573783149897</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.03545127769285</v>
+        <v>-1.60825360723542</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.91943205423909</v>
+        <v>-1.25927431015532</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.30607566952053</v>
+        <v>-0.273788493593917</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.1053104999258</v>
+        <v>-0.0852194781945962</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.24168257810784</v>
+        <v>-1.32493068886971</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.977041595022907</v>
+        <v>-0.335637241063103</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.150992420955945</v>
+        <v>-0.814524796141461</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.885457241773121</v>
+        <v>0.131659951459933</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.68830351756639</v>
+        <v>-1.6018241697078</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.663003090370191</v>
+        <v>-1.02436177727466</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.167804985315085</v>
+        <v>-0.630762592527238</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.679650867273816</v>
+        <v>-0.0586873826765176</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.2347804913121</v>
+        <v>0.284233874520565</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0188169960890142</v>
+        <v>1.80562686430583</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.482320202165629</v>
+        <v>-0.897861279858843</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.827563401476717</v>
+        <v>-0.841340215560385</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.258194424163961</v>
+        <v>-0.349178172505779</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.29998186058701</v>
+        <v>-0.0622174524795163</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.585163895604019</v>
+        <v>-0.0429925410067964</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0916894648990041</v>
+        <v>-2.14290338868781</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.47073206307044</v>
+        <v>-0.704951122574654</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.13990725180681</v>
+        <v>-1.69993916703579</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.65106837092307</v>
+        <v>0.147443283916932</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0882101711326428</v>
+        <v>-0.165103145944494</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.83488214660593</v>
+        <v>-0.547443071367631</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.67324280303822</v>
+        <v>-1.45568040304711</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.01250784793246</v>
+        <v>-0.672354057885183</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.42512207370362</v>
+        <v>-1.84148371182457</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.158203439438922</v>
+        <v>0.425745954146351</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_genes_example.xlsx
+++ b/file_checks/correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.30175719387065</v>
+        <v>-2.64248931913783</v>
       </c>
       <c r="B2" t="n">
-        <v>0.532227589971868</v>
+        <v>-0.0330235821510481</v>
       </c>
       <c r="C2" t="n">
-        <v>1.34893380089154</v>
+        <v>-0.592936828095598</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15659953025055</v>
+        <v>1.15618005870466</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.268880052287978</v>
+        <v>-0.641737083665357</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.354575612182504</v>
+        <v>1.49328067069642</v>
       </c>
       <c r="G2" t="n">
-        <v>0.849618031495703</v>
+        <v>1.21782085762326</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.11204829246064</v>
+        <v>0.031648815775779</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.414996419843708</v>
+        <v>-1.30509924642694</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.166241327019732</v>
+        <v>-0.705237340116149</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.620664658011455</v>
+        <v>0.968225427178185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.283453392983134</v>
+        <v>-0.298481503031471</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.934516395715085</v>
+        <v>1.40199503428599</v>
       </c>
       <c r="N2" t="n">
-        <v>0.211963134823303</v>
+        <v>1.58631595202873</v>
       </c>
       <c r="O2" t="n">
-        <v>0.603025311520047</v>
+        <v>-2.26731869927186</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.03635430058917</v>
+        <v>-0.559438393125123</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.087514334277743</v>
+        <v>-0.327910154399871</v>
       </c>
       <c r="R2" t="n">
-        <v>0.813077245194403</v>
+        <v>0.769956886911009</v>
       </c>
       <c r="S2" t="n">
-        <v>1.43647592310919</v>
+        <v>-0.811035854720847</v>
       </c>
       <c r="T2" t="n">
-        <v>1.13515643822409</v>
+        <v>-0.171007248620855</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.024277317284217</v>
+        <v>0.563088012074727</v>
       </c>
       <c r="V2" t="n">
-        <v>0.573225859179252</v>
+        <v>-0.582815464212158</v>
       </c>
       <c r="W2" t="n">
-        <v>0.502674564700764</v>
+        <v>-1.03826746378802</v>
       </c>
       <c r="X2" t="n">
-        <v>0.222892768761002</v>
+        <v>-0.363631803124717</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.316116468986665</v>
+        <v>-0.158737175074392</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.945822041105904</v>
+        <v>0.905613455264016</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.703244882903333</v>
+        <v>0.26670671326907</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.903130698803845</v>
+        <v>0.0632620580807627</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.55021880495147</v>
+        <v>-1.55700166745931</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.631377599563025</v>
+        <v>0.852528264613616</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.503704545984853</v>
+        <v>1.69513904877612</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.765122291316445</v>
+        <v>-0.0851374750541978</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.542335277695</v>
+        <v>0.130582166688778</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.859848742151852</v>
+        <v>0.12255424190605</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.187316856289753</v>
+        <v>0.363125944646402</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.929949345381321</v>
+        <v>-1.37744492677985</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.14316640609562</v>
+        <v>0.876664464221741</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.804390327749306</v>
+        <v>-0.418471875119916</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.992898775417287</v>
+        <v>-0.757446317967437</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.120518280325633</v>
+        <v>0.0291671034166903</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.87741549893542</v>
+        <v>0.698279258831674</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.745327312997737</v>
+        <v>1.2514739708891</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.698333724175241</v>
+        <v>1.20486217790092</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00034473225010361</v>
+        <v>2.71572699009795</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.56164373332478</v>
+        <v>-0.561091006869114</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.07129739245344</v>
+        <v>-1.14975881919995</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.08462073288818</v>
+        <v>-0.283167348858803</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.246852742678984</v>
+        <v>0.739341580123003</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0313427629519724</v>
+        <v>1.10817463452946</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.458106743623414</v>
+        <v>1.19572337893635</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.334367689394699</v>
+        <v>0.349687403920883</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.266227749888469</v>
+        <v>0.0466332984813716</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.733752496097462</v>
+        <v>0.630987551103708</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.97046925534907</v>
+        <v>0.876477247591135</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.558526581680444</v>
+        <v>-0.801443254689579</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0669728314331824</v>
+        <v>0.318255255413378</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.212913553105922</v>
+        <v>-0.641639354990182</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.191523497640883</v>
+        <v>-0.263544050452714</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.277089140526768</v>
+        <v>-0.151693349787664</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.693913794094686</v>
+        <v>0.290665556207209</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.373531023059266</v>
+        <v>0.128185861230286</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.1436877900879</v>
+        <v>1.05017655559119</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.15074293912455</v>
+        <v>0.467937130028072</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.1644220654889</v>
+        <v>0.128225742788324</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.344759159970872</v>
+        <v>1.60750691063275</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.3127829366932</v>
+        <v>-0.0319922880382802</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.581070282599941</v>
+        <v>-0.462699844855909</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.574697214799687</v>
+        <v>-0.00685674955588656</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.95919462198748</v>
+        <v>1.26035655733163</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.747198794168147</v>
+        <v>-1.3572389562955</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.48664694028739</v>
+        <v>-1.0525702562342</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.16664502252403</v>
+        <v>-1.20813089314869</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.16042925783074</v>
+        <v>-0.509567391225937</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.93697639885925</v>
+        <v>-1.29704841459195</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.00031714478767</v>
+        <v>0.32882257771645</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.0911197265296</v>
+        <v>-0.867073142764893</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.5783393307368</v>
+        <v>-0.0237537978654845</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.810324357493145</v>
+        <v>0.0236655494995581</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.10317203908284</v>
+        <v>-0.151737425152833</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.76623649996431</v>
+        <v>-1.12390102422096</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.34844741599892</v>
+        <v>-0.167541157263035</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.811040240603759</v>
+        <v>1.2181925956704</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.30579942622889</v>
+        <v>-0.787631054968953</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0127713824304196</v>
+        <v>0.0261962810466544</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.235011429753219</v>
+        <v>-0.972262874160913</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0966808036030831</v>
+        <v>1.21675065458792</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.191432575931869</v>
+        <v>1.48517092265141</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.825113502110815</v>
+        <v>-0.109908079451387</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.855118125019641</v>
+        <v>1.40018255431879</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.868854204010183</v>
+        <v>-0.596171243477604</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.699669565434421</v>
+        <v>1.5477660305654</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.21851181277544</v>
+        <v>1.64760881418873</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.439267800020903</v>
+        <v>-0.141021466956532</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.205568337784066</v>
+        <v>-0.391243537395247</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.657998170845686</v>
+        <v>-0.0084929463929396</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.23181345752603</v>
+        <v>1.07145189889624</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.906810903795959</v>
+        <v>0.0752323945308204</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.292451257307737</v>
+        <v>0.164500577550006</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.889932889479522</v>
+        <v>0.0515362375229694</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.903547087062832</v>
+        <v>0.557889131102606</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.311844838977255</v>
+        <v>-0.607019359699861</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.25186992522669</v>
+        <v>1.21455428800239</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.80736812652041</v>
+        <v>0.429448643667456</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.109346897464909</v>
+        <v>-0.715733941963443</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.648472634918972</v>
+        <v>0.919484693035739</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.06374904237778</v>
+        <v>-0.427120420648473</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.813807554895297</v>
+        <v>-0.393771363107712</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.312768739836604</v>
+        <v>0.137808620617975</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.718641406760497</v>
+        <v>0.639012351650796</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.79341659067426</v>
+        <v>0.988948565463391</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.119178693572979</v>
+        <v>0.187884043404319</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.539315185003621</v>
+        <v>0.995535054134343</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.548031912162587</v>
+        <v>0.223156220070137</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.387837728808007</v>
+        <v>-0.974507273710614</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.145201952096477</v>
+        <v>-0.730352515807779</v>
       </c>
       <c r="DL2" t="n">
-        <v>-2.48810816954372</v>
+        <v>-0.532978217625669</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.610626703512189</v>
+        <v>-1.12493988714284</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.68598212155191</v>
+        <v>-0.235682854169396</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.50904409354208</v>
+        <v>-1.12856175129735</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.19597374451752</v>
+        <v>0.0124492495147417</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.263091166822127</v>
+        <v>1.50702324456743</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.325881693892514</v>
+        <v>1.08548779010024</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.145895669062277</v>
+        <v>-0.233693054801681</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.52612741627811</v>
+        <v>-0.425642452490306</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.153977936099279</v>
+        <v>0.210256659224354</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.176199630165916</v>
+        <v>1.39612108419275</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.160998903094442</v>
+        <v>-0.0872324627708307</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.5919538062609</v>
+        <v>-0.125384418151602</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.469202757070866</v>
+        <v>0.625775722303686</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.9182328039286</v>
+        <v>-0.047668928344815</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.632802444024649</v>
+        <v>-0.508739536319302</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.390913929346943</v>
+        <v>-1.00952384403392</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.277277086349424</v>
+        <v>1.40751923125598</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1664934658825</v>
+        <v>-0.317924750265402</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.61762030892586</v>
+        <v>-0.612286895844887</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.27587871452133</v>
+        <v>-0.347090733938241</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.591573783149897</v>
+        <v>-0.372100547903197</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.60825360723542</v>
+        <v>-0.96715619111676</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.25927431015532</v>
+        <v>0.338250980268162</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.273788493593917</v>
+        <v>2.63015660539779</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0852194781945962</v>
+        <v>1.03491798075701</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.32493068886971</v>
+        <v>-2.97033367193253</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.335637241063103</v>
+        <v>1.38896760914162</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.814524796141461</v>
+        <v>0.198570397865062</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.131659951459933</v>
+        <v>-1.1497230870204</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.6018241697078</v>
+        <v>-2.60099298231895</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.02436177727466</v>
+        <v>-0.735757622843391</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.630762592527238</v>
+        <v>0.940290893585921</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0586873826765176</v>
+        <v>-0.511126279133865</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.284233874520565</v>
+        <v>-0.68840034325932</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.80562686430583</v>
+        <v>0.318037947873396</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.897861279858843</v>
+        <v>-0.0193396825875188</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.841340215560385</v>
+        <v>0.516576974813387</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.349178172505779</v>
+        <v>0.68846645415374</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0622174524795163</v>
+        <v>-0.234317272635799</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0429925410067964</v>
+        <v>-0.0787752101913379</v>
       </c>
       <c r="FA2" t="n">
-        <v>-2.14290338868781</v>
+        <v>1.60297787558988</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.704951122574654</v>
+        <v>0.234157608226318</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.69993916703579</v>
+        <v>1.72502716319445</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.147443283916932</v>
+        <v>-0.548281041745741</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.165103145944494</v>
+        <v>0.667116041626263</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.547443071367631</v>
+        <v>-0.263496035433241</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.45568040304711</v>
+        <v>0.218255229999457</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.672354057885183</v>
+        <v>-0.477063578657143</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.84148371182457</v>
+        <v>0.766945782240657</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.425745954146351</v>
+        <v>0.508741538109323</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_genes_example.xlsx
+++ b/file_checks/correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.64248931913783</v>
+        <v>0.580417010407171</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0330235821510481</v>
+        <v>-0.203766957243379</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.592936828095598</v>
+        <v>0.459911733352745</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15618005870466</v>
+        <v>-0.961980352032449</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.641737083665357</v>
+        <v>-0.526697022483619</v>
       </c>
       <c r="F2" t="n">
-        <v>1.49328067069642</v>
+        <v>0.592196952928653</v>
       </c>
       <c r="G2" t="n">
-        <v>1.21782085762326</v>
+        <v>0.151435546731423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.031648815775779</v>
+        <v>0.889521128896166</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.30509924642694</v>
+        <v>-0.0446478188073685</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.705237340116149</v>
+        <v>0.174591229564231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.968225427178185</v>
+        <v>-1.41623227548162</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.298481503031471</v>
+        <v>-0.0953396002964593</v>
       </c>
       <c r="M2" t="n">
-        <v>1.40199503428599</v>
+        <v>1.01339282175807</v>
       </c>
       <c r="N2" t="n">
-        <v>1.58631595202873</v>
+        <v>0.536968986369966</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.26731869927186</v>
+        <v>-2.27737095902186</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.559438393125123</v>
+        <v>0.0127999961520296</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.327910154399871</v>
+        <v>1.39736093592083</v>
       </c>
       <c r="R2" t="n">
-        <v>0.769956886911009</v>
+        <v>-0.0674535884515042</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.811035854720847</v>
+        <v>-0.125595193321201</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.171007248620855</v>
+        <v>-0.178805267604874</v>
       </c>
       <c r="U2" t="n">
-        <v>0.563088012074727</v>
+        <v>-1.65554058127344</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.582815464212158</v>
+        <v>0.592202534801853</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.03826746378802</v>
+        <v>0.690436754083637</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.363631803124717</v>
+        <v>0.775036423784021</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.158737175074392</v>
+        <v>-1.63772299428779</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.905613455264016</v>
+        <v>0.625097694518829</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.26670671326907</v>
+        <v>-1.00273283574637</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0632620580807627</v>
+        <v>-0.387515651235405</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.55700166745931</v>
+        <v>-0.0514310469619765</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.852528264613616</v>
+        <v>-0.178849011496647</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.69513904877612</v>
+        <v>-1.00399338326915</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0851374750541978</v>
+        <v>2.98922370089353</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.130582166688778</v>
+        <v>-1.00314824847377</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.12255424190605</v>
+        <v>-1.32132248919095</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.363125944646402</v>
+        <v>0.167866043666804</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.37744492677985</v>
+        <v>0.479755646782835</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.876664464221741</v>
+        <v>-1.18660603983832</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.418471875119916</v>
+        <v>2.00891972946672</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.757446317967437</v>
+        <v>0.212302875382454</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0291671034166903</v>
+        <v>0.503658592670361</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.698279258831674</v>
+        <v>-1.51347064427789</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.2514739708891</v>
+        <v>-1.08041870374052</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.20486217790092</v>
+        <v>0.043037824411862</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.71572699009795</v>
+        <v>-1.92443562745576</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.561091006869114</v>
+        <v>1.47366796103165</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.14975881919995</v>
+        <v>0.103550142966963</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.283167348858803</v>
+        <v>-1.08088547337179</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.739341580123003</v>
+        <v>-0.110705038395294</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.10817463452946</v>
+        <v>-1.78032469582594</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.19572337893635</v>
+        <v>-0.335253026940593</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.349687403920883</v>
+        <v>-1.0701513081968</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0466332984813716</v>
+        <v>-0.0782285271867305</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.630987551103708</v>
+        <v>-2.00865595929759</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.876477247591135</v>
+        <v>-0.572940292829595</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.801443254689579</v>
+        <v>-1.13822555511734</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.318255255413378</v>
+        <v>0.565882202537681</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.641639354990182</v>
+        <v>2.27069598443146</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.263544050452714</v>
+        <v>1.11516781364307</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.151693349787664</v>
+        <v>-0.0953898130993068</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.290665556207209</v>
+        <v>-0.0557016077234935</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.128185861230286</v>
+        <v>-0.261816126743444</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.05017655559119</v>
+        <v>0.501322627509888</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.467937130028072</v>
+        <v>-1.6256338936928</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.128225742788324</v>
+        <v>-0.121970069708859</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.60750691063275</v>
+        <v>1.62693820555827</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0319922880382802</v>
+        <v>0.908867197150018</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.462699844855909</v>
+        <v>0.329455157887529</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00685674955588656</v>
+        <v>-1.17972680305612</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.26035655733163</v>
+        <v>0.141604934040999</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.3572389562955</v>
+        <v>-0.943310859402374</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.0525702562342</v>
+        <v>-0.591748587541863</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.20813089314869</v>
+        <v>0.346810793615744</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.509567391225937</v>
+        <v>-1.25491469234306</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.29704841459195</v>
+        <v>-0.412583821151167</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.32882257771645</v>
+        <v>-0.250479873073112</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.867073142764893</v>
+        <v>-0.396195218489469</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0237537978654845</v>
+        <v>0.309086459462963</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0236655494995581</v>
+        <v>1.03153226289997</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.151737425152833</v>
+        <v>0.891758081010153</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.12390102422096</v>
+        <v>-0.616888345965839</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.167541157263035</v>
+        <v>-1.47179035361808</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.2181925956704</v>
+        <v>0.438350138957542</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.787631054968953</v>
+        <v>-0.898351478575276</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0261962810466544</v>
+        <v>1.61016277625714</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.972262874160913</v>
+        <v>0.141367164431176</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.21675065458792</v>
+        <v>-0.127515629722874</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.48517092265141</v>
+        <v>0.574196372488234</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.109908079451387</v>
+        <v>-0.0986810022256912</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.40018255431879</v>
+        <v>-0.523036072369251</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.596171243477604</v>
+        <v>-1.29745041794309</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.5477660305654</v>
+        <v>-1.88562507514946</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.64760881418873</v>
+        <v>-0.336270603187886</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.141021466956532</v>
+        <v>-0.562315375838773</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.391243537395247</v>
+        <v>-0.182285385287965</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0084929463929396</v>
+        <v>0.890969145616171</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.07145189889624</v>
+        <v>-1.02041398366405</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0752323945308204</v>
+        <v>0.941782156788638</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.164500577550006</v>
+        <v>0.00167026387146219</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0515362375229694</v>
+        <v>-0.383629400438923</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.557889131102606</v>
+        <v>-0.702020440817657</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.607019359699861</v>
+        <v>-2.03984442382098</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.21455428800239</v>
+        <v>0.951740715007547</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.429448643667456</v>
+        <v>0.306319036300673</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.715733941963443</v>
+        <v>1.77429657958581</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.919484693035739</v>
+        <v>0.0362328571029279</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.427120420648473</v>
+        <v>-1.31805799029487</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.393771363107712</v>
+        <v>0.591662860669481</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.137808620617975</v>
+        <v>-0.153828555674823</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.639012351650796</v>
+        <v>0.963826678102764</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.988948565463391</v>
+        <v>0.860029038704358</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.187884043404319</v>
+        <v>-0.530701406531486</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.995535054134343</v>
+        <v>-0.52788455769582</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.223156220070137</v>
+        <v>-3.04955301308337</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.974507273710614</v>
+        <v>0.876546366424791</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.730352515807779</v>
+        <v>-0.999642041618669</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.532978217625669</v>
+        <v>-1.46055306963012</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.12493988714284</v>
+        <v>0.571779716621427</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.235682854169396</v>
+        <v>-0.659882751928115</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.12856175129735</v>
+        <v>0.197907587831391</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0124492495147417</v>
+        <v>0.117287745365376</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.50702324456743</v>
+        <v>-0.204664279095379</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.08548779010024</v>
+        <v>0.330995646726523</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.233693054801681</v>
+        <v>-0.957357513937148</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.425642452490306</v>
+        <v>-0.20674126577558</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.210256659224354</v>
+        <v>-0.166790247690805</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.39612108419275</v>
+        <v>-1.09172942607249</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0872324627708307</v>
+        <v>-0.934894178127865</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.125384418151602</v>
+        <v>-0.856638148821086</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.625775722303686</v>
+        <v>-1.71078594746942</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.047668928344815</v>
+        <v>1.22601679445197</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.508739536319302</v>
+        <v>-0.883468450653935</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.00952384403392</v>
+        <v>-0.811221083673876</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.40751923125598</v>
+        <v>-1.23774298501293</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.317924750265402</v>
+        <v>0.263851549729856</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.612286895844887</v>
+        <v>0.492906364508885</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.347090733938241</v>
+        <v>-0.578919908301527</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.372100547903197</v>
+        <v>0.419613545007903</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.96715619111676</v>
+        <v>-0.0361579027132949</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.338250980268162</v>
+        <v>0.115598464138746</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.63015660539779</v>
+        <v>-1.81410710968193</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.03491798075701</v>
+        <v>-1.37141536372367</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.97033367193253</v>
+        <v>0.312481196151469</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.38896760914162</v>
+        <v>-0.20936271613602</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.198570397865062</v>
+        <v>0.944108159653605</v>
       </c>
       <c r="EO2" t="n">
-        <v>-1.1497230870204</v>
+        <v>0.275759804848999</v>
       </c>
       <c r="EP2" t="n">
-        <v>-2.60099298231895</v>
+        <v>1.57071943094308</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.735757622843391</v>
+        <v>0.428879195008436</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.940290893585921</v>
+        <v>0.904813362108421</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.511126279133865</v>
+        <v>1.09045978236196</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.68840034325932</v>
+        <v>0.692331490708942</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.318037947873396</v>
+        <v>-0.157648154572946</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.0193396825875188</v>
+        <v>0.142811614465002</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.516576974813387</v>
+        <v>-0.225165853902463</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.68846645415374</v>
+        <v>0.794095481684698</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.234317272635799</v>
+        <v>0.154124905446381</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0787752101913379</v>
+        <v>-1.06377005163435</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.60297787558988</v>
+        <v>-0.817453707270105</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.234157608226318</v>
+        <v>0.049344234667154</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.72502716319445</v>
+        <v>0.614990557438083</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.548281041745741</v>
+        <v>-0.236667683359716</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.667116041626263</v>
+        <v>-0.597439395149601</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.263496035433241</v>
+        <v>1.21819439202374</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.218255229999457</v>
+        <v>-1.12305652433476</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.477063578657143</v>
+        <v>-0.74885259199412</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.766945782240657</v>
+        <v>-0.100870989781372</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.508741538109323</v>
+        <v>-1.44287524794818</v>
       </c>
     </row>
   </sheetData>
